--- a/Documents/GAUCA_Description_Projet/estimation.xlsx
+++ b/Documents/GAUCA_Description_Projet/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -147,13 +147,34 @@
   </si>
   <si>
     <t>Création des obstacles/ennemis</t>
+  </si>
+  <si>
+    <t>Implémentation d'Open GL ES</t>
+  </si>
+  <si>
+    <t>Création de classes</t>
+  </si>
+  <si>
+    <t>Implémentation d'un surfaceView fonctionnelle et d'une boucle de jeu</t>
+  </si>
+  <si>
+    <t>Travail sur les classes</t>
+  </si>
+  <si>
+    <t>Travail sur les déplacements avec l'orientation</t>
+  </si>
+  <si>
+    <t>Amélioration sur la technologie de l'orientation</t>
+  </si>
+  <si>
+    <t>Implémentation d'un système de collision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +202,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -290,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -327,6 +356,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1598,7 +1634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -1707,10 +1743,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
         <v>40</v>
@@ -1812,10 +1848,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>50</v>
@@ -1842,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD47"/>
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1900,128 +1936,170 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="18">
+        <v>42765</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="18">
+        <v>42765</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18">
+        <v>42766</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="15">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="18">
+        <v>42766</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="18">
+        <v>42772</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="18">
+        <v>42773</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="18">
+        <v>42773</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="4"/>
       <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="4"/>
       <c r="C22" s="15"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="4"/>
       <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="4"/>
       <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="4"/>
       <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="4"/>
       <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="4"/>
       <c r="C27" s="15"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="4"/>
       <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="4"/>
       <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="4"/>
       <c r="C30" s="15"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="4"/>
       <c r="C31" s="15"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="4"/>
       <c r="C32" s="15"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="4"/>
       <c r="C33" s="15"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="4"/>
       <c r="C34" s="15"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="4"/>
       <c r="C35" s="15"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="4"/>
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2043,22 +2121,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2250,10 +2328,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2278,22 +2356,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2483,10 +2561,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2511,22 +2589,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2716,10 +2794,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2744,22 +2822,22 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documents/GAUCA_Description_Projet/estimation.xlsx
+++ b/Documents/GAUCA_Description_Projet/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>Implémentation d'un système de collision</t>
+  </si>
+  <si>
+    <t>Test de génération aléatoire</t>
+  </si>
+  <si>
+    <t>Amélioration visuelles</t>
+  </si>
+  <si>
+    <t>Travail sur la structure des classes</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -1879,7 +1888,7 @@
   <dimension ref="A6:C47"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2153,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD47"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2211,44 +2220,62 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="18">
+        <v>42786</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="18">
+        <v>42786</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18">
+        <v>42786</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="4"/>
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="4"/>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="4"/>
       <c r="C21" s="15"/>
     </row>
@@ -2334,7 +2361,7 @@
       <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">

--- a/Documents/GAUCA_Description_Projet/estimation.xlsx
+++ b/Documents/GAUCA_Description_Projet/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Semaine 15</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Le projet doit être décomposé en plusieurs sections indépendantes qui doivent être priorisées et estimées</t>
   </si>
   <si>
@@ -177,6 +174,12 @@
   </si>
   <si>
     <t>Travail sur la structure des classes</t>
+  </si>
+  <si>
+    <t>Travail sur la physique</t>
+  </si>
+  <si>
+    <t>Implémentation de menu</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1659,7 @@
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1701,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3">
         <v>10</v>
@@ -1712,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
@@ -1723,7 +1726,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3">
         <v>15</v>
@@ -1734,7 +1737,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3">
         <v>5</v>
@@ -1745,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
@@ -1789,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3">
         <v>15</v>
@@ -1800,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="3">
         <v>15</v>
@@ -1811,7 +1814,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="3">
         <v>10</v>
@@ -1822,7 +1825,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="3">
         <v>10</v>
@@ -1949,7 +1952,7 @@
         <v>42765</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="15">
         <v>3</v>
@@ -1960,7 +1963,7 @@
         <v>42765</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="15">
         <v>1</v>
@@ -1971,7 +1974,7 @@
         <v>42766</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="15">
         <v>6</v>
@@ -1982,7 +1985,7 @@
         <v>42766</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="15">
         <v>1</v>
@@ -1993,7 +1996,7 @@
         <v>42772</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="15">
         <v>3</v>
@@ -2004,7 +2007,7 @@
         <v>42773</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="15">
         <v>2</v>
@@ -2015,7 +2018,7 @@
         <v>42773</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="15">
         <v>1</v>
@@ -2113,13 +2116,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2128,7 +2131,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="23"/>
     </row>
@@ -2162,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2224,7 +2227,7 @@
         <v>42786</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="19">
         <v>2</v>
@@ -2235,7 +2238,7 @@
         <v>42786</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="19">
         <v>3</v>
@@ -2246,23 +2249,33 @@
         <v>42786</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="18">
+        <v>42787</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="19"/>
+      <c r="A18" s="18">
+        <v>42787</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
@@ -2361,18 +2374,18 @@
       <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2381,7 +2394,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="23"/>
     </row>
@@ -2599,13 +2612,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2614,7 +2627,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="23"/>
     </row>
@@ -2685,7 +2698,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2832,13 +2845,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2847,7 +2860,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="23"/>
     </row>

--- a/Documents/GAUCA_Description_Projet/estimation.xlsx
+++ b/Documents/GAUCA_Description_Projet/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>Implémentation de menu</t>
+  </si>
+  <si>
+    <t>Modification au moteur de jeu</t>
+  </si>
+  <si>
+    <t>Création de contenu</t>
   </si>
 </sst>
 </file>
@@ -331,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,6 +381,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1755,10 +1762,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
         <v>40</v>
@@ -1860,10 +1867,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>50</v>
@@ -2105,10 +2112,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>17</v>
@@ -2133,22 +2140,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="24"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
+      <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
+      <c r="B44" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
+      <c r="B45" s="25"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
+      <c r="B46" s="25"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
+      <c r="B47" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2165,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2252,7 +2259,7 @@
         <v>51</v>
       </c>
       <c r="C16" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -2278,24 +2285,48 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="18">
+        <v>42801</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="18">
+        <v>42807</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="18">
+        <v>42807</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="21">
+        <v>42808</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
@@ -2368,13 +2399,13 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2387,7 +2418,9 @@
       <c r="A40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
@@ -2396,22 +2429,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="24"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
+      <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
+      <c r="B44" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
+      <c r="B45" s="25"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
+      <c r="B46" s="25"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
+      <c r="B47" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2601,10 +2634,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2629,22 +2662,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="24"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
+      <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
+      <c r="B44" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
+      <c r="B45" s="25"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
+      <c r="B46" s="25"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
+      <c r="B47" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2834,10 +2867,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2862,22 +2895,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="24"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
+      <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
+      <c r="B44" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
+      <c r="B45" s="25"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
+      <c r="B46" s="25"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
+      <c r="B47" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documents/GAUCA_Description_Projet/estimation.xlsx
+++ b/Documents/GAUCA_Description_Projet/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -186,6 +186,21 @@
   </si>
   <si>
     <t>Création de contenu</t>
+  </si>
+  <si>
+    <t>Recherche sur la sérialisation XML</t>
+  </si>
+  <si>
+    <t>Tests sur la sérialization XML</t>
+  </si>
+  <si>
+    <t>Tests sur les effets sonores</t>
+  </si>
+  <si>
+    <t>Refonte de l'architecture</t>
+  </si>
+  <si>
+    <t>Régulation des FPS</t>
   </si>
 </sst>
 </file>
@@ -337,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -397,6 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2172,7 +2188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
@@ -2461,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD47"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2519,34 +2535,70 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>42815</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="27">
+        <v>42821</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="27">
+        <v>42822</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="27">
+        <v>42828</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="27">
+        <v>42829</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="27">
+        <v>42834</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
@@ -2640,7 +2692,7 @@
       <c r="B37" s="23"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2653,7 +2705,9 @@
       <c r="A40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>

--- a/Documents/GAUCA_Description_Projet/estimation.xlsx
+++ b/Documents/GAUCA_Description_Projet/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -201,6 +201,24 @@
   </si>
   <si>
     <t>Régulation des FPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests sur la sérialization Json </t>
+  </si>
+  <si>
+    <t>Implémentation d'effet sonores</t>
+  </si>
+  <si>
+    <t>Retouche dans l'architecture</t>
+  </si>
+  <si>
+    <t>Implémentation de la sérialization XML</t>
+  </si>
+  <si>
+    <t>Implémentation de la vie et des munitions</t>
+  </si>
+  <si>
+    <t>Génération des sections</t>
   </si>
 </sst>
 </file>
@@ -397,6 +415,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -412,7 +431,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1778,10 +1796,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
         <v>40</v>
@@ -1883,10 +1901,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>50</v>
@@ -2128,10 +2146,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>17</v>
@@ -2156,22 +2174,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="25"/>
+      <c r="B43" s="26"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="25"/>
+      <c r="B44" s="26"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="25"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="25"/>
+      <c r="B46" s="26"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="26"/>
+      <c r="B47" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2415,10 +2433,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>18</v>
@@ -2445,22 +2463,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="25"/>
+      <c r="B43" s="26"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="25"/>
+      <c r="B44" s="26"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="25"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="25"/>
+      <c r="B46" s="26"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="26"/>
+      <c r="B47" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2477,8 +2495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2546,7 +2564,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="27">
+      <c r="A15" s="22">
         <v>42821</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2557,7 +2575,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
+      <c r="A16" s="22">
         <v>42822</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2568,7 +2586,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+      <c r="A17" s="22">
         <v>42828</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2579,7 +2597,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+      <c r="A18" s="22">
         <v>42829</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2590,7 +2608,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="22">
         <v>42834</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2686,10 +2704,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>17</v>
@@ -2716,22 +2734,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="25"/>
+      <c r="B43" s="26"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="25"/>
+      <c r="B44" s="26"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="25"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="25"/>
+      <c r="B46" s="26"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="26"/>
+      <c r="B47" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2748,8 +2766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2806,44 +2824,92 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>42836</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="22">
+        <v>42842</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="22">
+        <v>42843</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="22">
+        <v>42849</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="22">
+        <v>42850</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="22">
+        <v>42856</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="22">
+        <v>42857</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="22">
+        <v>42862</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
@@ -2921,13 +2987,13 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2949,22 +3015,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="25"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="25"/>
+      <c r="B43" s="26"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="25"/>
+      <c r="B44" s="26"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="25"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="25"/>
+      <c r="B46" s="26"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="26"/>
+      <c r="B47" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
